--- a/数值表7.10/数值版本7.10/奖励配置辅助表/排行榜奖励礼包.xlsx
+++ b/数值表7.10/数值版本7.10/奖励配置辅助表/排行榜奖励礼包.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/XHCY/辅助总表/奖励配置辅助表/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/XHCY/数值表7.10/数值版本7.10/奖励配置辅助表/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="20160" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="20160" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="全局表中显示" sheetId="7" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="358">
   <si>
     <t>ID</t>
   </si>
@@ -2287,6 +2287,16 @@
   </si>
   <si>
     <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定钻石</t>
+    <rPh sb="0" eb="1">
+      <t>bang'd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zuan's</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3724,7 +3734,7 @@
       </c>
       <c r="D4" s="1" t="str">
         <f>VLOOKUP(A4,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":100,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":50,"tr":0}]</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -3746,7 +3756,7 @@
       </c>
       <c r="D5" s="1" t="str">
         <f>VLOOKUP(A5,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":50,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":25,"tr":0}]</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -3768,7 +3778,7 @@
       </c>
       <c r="D6" s="1" t="str">
         <f>VLOOKUP(A6,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":25,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":10,"tr":0}]</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -3790,7 +3800,7 @@
       </c>
       <c r="D7" s="1" t="str">
         <f>VLOOKUP(A7,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":10,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":5,"tr":0}]</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -3813,7 +3823,7 @@
       </c>
       <c r="D8" s="1" t="str">
         <f>VLOOKUP(A8,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":100,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":50,"tr":0}]</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -3836,7 +3846,7 @@
       </c>
       <c r="D9" s="1" t="str">
         <f>VLOOKUP(A9,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":50,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":25,"tr":0}]</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -3859,7 +3869,7 @@
       </c>
       <c r="D10" s="1" t="str">
         <f>VLOOKUP(A10,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":25,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":10,"tr":0}]</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -3882,7 +3892,7 @@
       </c>
       <c r="D11" s="1" t="str">
         <f>VLOOKUP(A11,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":10,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":5,"tr":0}]</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -3905,7 +3915,7 @@
       </c>
       <c r="D12" s="1" t="str">
         <f>VLOOKUP(A12,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":100,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":50,"tr":0}]</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -3928,7 +3938,7 @@
       </c>
       <c r="D13" s="1" t="str">
         <f>VLOOKUP(A13,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":50,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":25,"tr":0}]</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -3951,7 +3961,7 @@
       </c>
       <c r="D14" s="1" t="str">
         <f>VLOOKUP(A14,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":25,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":10,"tr":0}]</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -3974,7 +3984,7 @@
       </c>
       <c r="D15" s="1" t="str">
         <f>VLOOKUP(A15,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":10,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":5,"tr":0}]</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -3997,7 +4007,7 @@
       </c>
       <c r="D16" s="1" t="str">
         <f>VLOOKUP(A16,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":100,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":50,"tr":0}]</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -4020,7 +4030,7 @@
       </c>
       <c r="D17" s="1" t="str">
         <f>VLOOKUP(A17,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":50,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":25,"tr":0}]</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -4043,7 +4053,7 @@
       </c>
       <c r="D18" s="1" t="str">
         <f>VLOOKUP(A18,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":25,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":10,"tr":0}]</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -4066,7 +4076,7 @@
       </c>
       <c r="D19" s="1" t="str">
         <f>VLOOKUP(A19,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":10,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":5,"tr":0}]</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -4089,7 +4099,7 @@
       </c>
       <c r="D20" s="1" t="str">
         <f>VLOOKUP(A20,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":100,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":50,"tr":0}]</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -4112,7 +4122,7 @@
       </c>
       <c r="D21" s="1" t="str">
         <f>VLOOKUP(A21,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":50,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":25,"tr":0}]</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -4135,7 +4145,7 @@
       </c>
       <c r="D22" s="1" t="str">
         <f>VLOOKUP(A22,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":25,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":10,"tr":0}]</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -4158,7 +4168,7 @@
       </c>
       <c r="D23" s="1" t="str">
         <f>VLOOKUP(A23,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":10,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":5,"tr":0}]</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -4181,7 +4191,7 @@
       </c>
       <c r="D24" s="1" t="str">
         <f>VLOOKUP(A24,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":100,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":50,"tr":0}]</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -4204,7 +4214,7 @@
       </c>
       <c r="D25" s="1" t="str">
         <f>VLOOKUP(A25,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":50,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":25,"tr":0}]</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -4227,7 +4237,7 @@
       </c>
       <c r="D26" s="1" t="str">
         <f>VLOOKUP(A26,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":25,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":10,"tr":0}]</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -4250,7 +4260,7 @@
       </c>
       <c r="D27" s="1" t="str">
         <f>VLOOKUP(A27,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":10,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":5,"tr":0}]</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
@@ -4273,7 +4283,7 @@
       </c>
       <c r="D28" s="1" t="str">
         <f>VLOOKUP(A28,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":100,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":50,"tr":0}]</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
@@ -4296,7 +4306,7 @@
       </c>
       <c r="D29" s="1" t="str">
         <f>VLOOKUP(A29,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":50,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":25,"tr":0}]</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -4319,7 +4329,7 @@
       </c>
       <c r="D30" s="1" t="str">
         <f>VLOOKUP(A30,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":25,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":10,"tr":0}]</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -4342,7 +4352,7 @@
       </c>
       <c r="D31" s="1" t="str">
         <f>VLOOKUP(A31,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":10,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":5,"tr":0}]</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -4365,7 +4375,7 @@
       </c>
       <c r="D32" s="1" t="str">
         <f>VLOOKUP(A32,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":100,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":50,"tr":0}]</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
@@ -4388,7 +4398,7 @@
       </c>
       <c r="D33" s="1" t="str">
         <f>VLOOKUP(A33,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":50,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":25,"tr":0}]</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -4411,7 +4421,7 @@
       </c>
       <c r="D34" s="1" t="str">
         <f>VLOOKUP(A34,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":25,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":10,"tr":0}]</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -4434,7 +4444,7 @@
       </c>
       <c r="D35" s="1" t="str">
         <f>VLOOKUP(A35,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":2,"c":10,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":5,"tr":0}]</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -12270,8 +12280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -13629,7 +13639,7 @@
       </c>
       <c r="G4" s="3" t="str">
         <f>"["&amp;J4&amp;K4&amp;L4&amp;M4&amp;N4&amp;O4&amp;P4&amp;Q4&amp;R4&amp;S4&amp;T4&amp;U4&amp;V4&amp;W4&amp;X4&amp;Y4&amp;Z4&amp;AA4&amp;AB4&amp;AC4&amp;AD4&amp;AE4&amp;AF4&amp;AG4&amp;AH4&amp;AI4&amp;AJ4&amp;AK4&amp;AL4&amp;AM4&amp;AN4&amp;AO4&amp;AP4&amp;AQ4&amp;AR4&amp;AS4&amp;AT4&amp;AU4&amp;AV4&amp;AW4&amp;AX4&amp;AY4&amp;AZ4&amp;BA4&amp;BB4&amp;BC4&amp;"]"</f>
-        <v>[{"t":"i","i":2,"c":100,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":50,"tr":0}]</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -13639,7 +13649,7 @@
       </c>
       <c r="J4" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B4*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
       <c r="K4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B4*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -13859,7 +13869,7 @@
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G6" si="0">"["&amp;J5&amp;K5&amp;L5&amp;M5&amp;N5&amp;O5&amp;P5&amp;Q5&amp;R5&amp;S5&amp;T5&amp;U5&amp;V5&amp;W5&amp;X5&amp;Y5&amp;Z5&amp;AA5&amp;AB5&amp;AC5&amp;AD5&amp;AE5&amp;AF5&amp;AG5&amp;AH5&amp;AI5&amp;AJ5&amp;AK5&amp;AL5&amp;AM5&amp;AN5&amp;AO5&amp;AP5&amp;AQ5&amp;AR5&amp;AS5&amp;AT5&amp;AU5&amp;AV5&amp;AW5&amp;AX5&amp;AY5&amp;AZ5&amp;BA5&amp;BB5&amp;BC5&amp;"]"</f>
-        <v>[{"t":"i","i":2,"c":50,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":25,"tr":0}]</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -13869,7 +13879,7 @@
       </c>
       <c r="J5" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B5*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":50,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":25,"tr":0}</v>
       </c>
       <c r="K5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B5*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -14089,7 +14099,7 @@
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>[{"t":"i","i":2,"c":25,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":10,"tr":0}]</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -14099,7 +14109,7 @@
       </c>
       <c r="J6" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B6*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":25,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":10,"tr":0}</v>
       </c>
       <c r="K6" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B6*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -14319,7 +14329,7 @@
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G35" si="1">"["&amp;J7&amp;K7&amp;L7&amp;M7&amp;N7&amp;O7&amp;P7&amp;Q7&amp;R7&amp;S7&amp;T7&amp;U7&amp;V7&amp;W7&amp;X7&amp;Y7&amp;Z7&amp;AA7&amp;AB7&amp;AC7&amp;AD7&amp;AE7&amp;AF7&amp;AG7&amp;AH7&amp;AI7&amp;AJ7&amp;AK7&amp;AL7&amp;AM7&amp;AN7&amp;AO7&amp;AP7&amp;AQ7&amp;AR7&amp;AS7&amp;AT7&amp;AU7&amp;AV7&amp;AW7&amp;AX7&amp;AY7&amp;AZ7&amp;BA7&amp;BB7&amp;BC7&amp;"]"</f>
-        <v>[{"t":"i","i":2,"c":10,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":5,"tr":0}]</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -14329,7 +14339,7 @@
       </c>
       <c r="J7" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B7*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":10,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":5,"tr":0}</v>
       </c>
       <c r="K7" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B7*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -14551,7 +14561,7 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>[{"t":"i","i":2,"c":100,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":50,"tr":0}]</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -14561,7 +14571,7 @@
       </c>
       <c r="J8" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B8*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
       <c r="K8" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B8*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -14783,7 +14793,7 @@
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>[{"t":"i","i":2,"c":50,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":25,"tr":0}]</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -14793,7 +14803,7 @@
       </c>
       <c r="J9" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B9*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":50,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":25,"tr":0}</v>
       </c>
       <c r="K9" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B9*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -15015,7 +15025,7 @@
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>[{"t":"i","i":2,"c":25,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":10,"tr":0}]</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -15025,7 +15035,7 @@
       </c>
       <c r="J10" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B10*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":25,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":10,"tr":0}</v>
       </c>
       <c r="K10" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B10*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -15247,7 +15257,7 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>[{"t":"i","i":2,"c":10,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":5,"tr":0}]</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -15257,7 +15267,7 @@
       </c>
       <c r="J11" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B11*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":10,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":5,"tr":0}</v>
       </c>
       <c r="K11" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B11*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -15479,7 +15489,7 @@
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>[{"t":"i","i":2,"c":100,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":50,"tr":0}]</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -15489,7 +15499,7 @@
       </c>
       <c r="J12" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B12*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
       <c r="K12" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B12*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -15711,7 +15721,7 @@
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>[{"t":"i","i":2,"c":50,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":25,"tr":0}]</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -15721,7 +15731,7 @@
       </c>
       <c r="J13" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B13*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":50,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":25,"tr":0}</v>
       </c>
       <c r="K13" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B13*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -15943,7 +15953,7 @@
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>[{"t":"i","i":2,"c":25,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":10,"tr":0}]</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -15953,7 +15963,7 @@
       </c>
       <c r="J14" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B14*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":25,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":10,"tr":0}</v>
       </c>
       <c r="K14" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B14*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -16175,7 +16185,7 @@
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>[{"t":"i","i":2,"c":10,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":5,"tr":0}]</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -16185,7 +16195,7 @@
       </c>
       <c r="J15" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B15*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":10,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":5,"tr":0}</v>
       </c>
       <c r="K15" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B15*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -16407,7 +16417,7 @@
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>[{"t":"i","i":2,"c":100,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":50,"tr":0}]</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -16417,7 +16427,7 @@
       </c>
       <c r="J16" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B16*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
       <c r="K16" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B16*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -16639,7 +16649,7 @@
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>[{"t":"i","i":2,"c":50,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":25,"tr":0}]</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -16649,7 +16659,7 @@
       </c>
       <c r="J17" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B17*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":50,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":25,"tr":0}</v>
       </c>
       <c r="K17" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B17*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -16871,7 +16881,7 @@
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>[{"t":"i","i":2,"c":25,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":10,"tr":0}]</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -16881,7 +16891,7 @@
       </c>
       <c r="J18" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B18*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":25,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":10,"tr":0}</v>
       </c>
       <c r="K18" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B18*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -17103,7 +17113,7 @@
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>[{"t":"i","i":2,"c":10,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":5,"tr":0}]</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -17113,7 +17123,7 @@
       </c>
       <c r="J19" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B19*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":10,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":5,"tr":0}</v>
       </c>
       <c r="K19" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B19*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -17335,7 +17345,7 @@
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>[{"t":"i","i":2,"c":100,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":50,"tr":0}]</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -17345,7 +17355,7 @@
       </c>
       <c r="J20" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B20*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
       <c r="K20" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B20*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -17567,7 +17577,7 @@
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>[{"t":"i","i":2,"c":50,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":25,"tr":0}]</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -17577,7 +17587,7 @@
       </c>
       <c r="J21" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B21*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":50,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":25,"tr":0}</v>
       </c>
       <c r="K21" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B21*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -17799,7 +17809,7 @@
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>[{"t":"i","i":2,"c":25,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":10,"tr":0}]</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -17809,7 +17819,7 @@
       </c>
       <c r="J22" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B22*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":25,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":10,"tr":0}</v>
       </c>
       <c r="K22" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B22*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -18031,7 +18041,7 @@
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>[{"t":"i","i":2,"c":10,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":5,"tr":0}]</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -18041,7 +18051,7 @@
       </c>
       <c r="J23" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B23*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":10,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":5,"tr":0}</v>
       </c>
       <c r="K23" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B23*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -18263,7 +18273,7 @@
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>[{"t":"i","i":2,"c":100,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":50,"tr":0}]</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -18273,7 +18283,7 @@
       </c>
       <c r="J24" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B24*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
       <c r="K24" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B24*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -18495,7 +18505,7 @@
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>[{"t":"i","i":2,"c":50,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":25,"tr":0}]</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -18505,7 +18515,7 @@
       </c>
       <c r="J25" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B25*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":50,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":25,"tr":0}</v>
       </c>
       <c r="K25" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B25*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -18727,7 +18737,7 @@
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>[{"t":"i","i":2,"c":25,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":10,"tr":0}]</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -18737,7 +18747,7 @@
       </c>
       <c r="J26" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B26*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":25,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":10,"tr":0}</v>
       </c>
       <c r="K26" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B26*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -18959,7 +18969,7 @@
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>[{"t":"i","i":2,"c":10,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":5,"tr":0}]</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -18969,7 +18979,7 @@
       </c>
       <c r="J27" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B27*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":10,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":5,"tr":0}</v>
       </c>
       <c r="K27" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B27*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -19191,7 +19201,7 @@
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>[{"t":"i","i":2,"c":100,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":50,"tr":0}]</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -19201,7 +19211,7 @@
       </c>
       <c r="J28" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B28*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
       <c r="K28" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B28*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -19423,7 +19433,7 @@
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>[{"t":"i","i":2,"c":50,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":25,"tr":0}]</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -19433,7 +19443,7 @@
       </c>
       <c r="J29" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B29*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":50,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":25,"tr":0}</v>
       </c>
       <c r="K29" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B29*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -19655,7 +19665,7 @@
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>[{"t":"i","i":2,"c":25,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":10,"tr":0}]</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -19665,7 +19675,7 @@
       </c>
       <c r="J30" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B30*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":25,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":10,"tr":0}</v>
       </c>
       <c r="K30" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B30*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -19887,7 +19897,7 @@
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>[{"t":"i","i":2,"c":10,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":5,"tr":0}]</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -19897,7 +19907,7 @@
       </c>
       <c r="J31" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B31*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":10,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":5,"tr":0}</v>
       </c>
       <c r="K31" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B31*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -20119,7 +20129,7 @@
       </c>
       <c r="G32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>[{"t":"i","i":2,"c":100,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":50,"tr":0}]</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -20129,7 +20139,7 @@
       </c>
       <c r="J32" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B32*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
       <c r="K32" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B32*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -20351,7 +20361,7 @@
       </c>
       <c r="G33" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>[{"t":"i","i":2,"c":50,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":25,"tr":0}]</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -20361,7 +20371,7 @@
       </c>
       <c r="J33" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B33*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":50,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":25,"tr":0}</v>
       </c>
       <c r="K33" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B33*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -20583,7 +20593,7 @@
       </c>
       <c r="G34" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>[{"t":"i","i":2,"c":25,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":10,"tr":0}]</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -20593,7 +20603,7 @@
       </c>
       <c r="J34" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B34*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":25,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":10,"tr":0}</v>
       </c>
       <c r="K34" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B34*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -20815,7 +20825,7 @@
       </c>
       <c r="G35" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>[{"t":"i","i":2,"c":10,"tr":0}]</v>
+        <v>[{"t":"i","i":3,"c":5,"tr":0}]</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -20825,7 +20835,7 @@
       </c>
       <c r="J35" t="str">
         <f>_xlfn.IFNA(VLOOKUP($B35*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":2,"c":10,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":5,"tr":0}</v>
       </c>
       <c r="K35" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B35*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -23002,8 +23012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -23119,18 +23129,18 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H8" t="str">
         <f>H$6&amp;VLOOKUP(E8,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I8" t="str">
         <f>I$5&amp;F8&amp;I$6</f>
-        <v>,"c":100,"tr":0}</v>
+        <v>,"c":50,"tr":0}</v>
       </c>
       <c r="J8" t="str">
         <f>IF(G8="","",J$6)</f>
@@ -23138,7 +23148,7 @@
       </c>
       <c r="K8" t="str">
         <f>G8&amp;H8&amp;I8&amp;J8</f>
-        <v>{"t":"i","i":2,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
@@ -23156,18 +23166,18 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H9" t="str">
         <f>H$6&amp;VLOOKUP(E9,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" ref="I9:I19" si="1">I$5&amp;F9&amp;I$6</f>
-        <v>,"c":50,"tr":0}</v>
+        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" ref="J9:J19" si="2">IF(G9="","",J$6)</f>
@@ -23175,7 +23185,7 @@
       </c>
       <c r="K9" t="str">
         <f t="shared" ref="K9:K19" si="3">G9&amp;H9&amp;I9&amp;J9</f>
-        <v>{"t":"i","i":2,"c":50,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":25,"tr":0}</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -23193,18 +23203,18 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H10" t="str">
         <f>H$6&amp;VLOOKUP(E10,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
-        <v>,"c":25,"tr":0}</v>
+        <v>,"c":10,"tr":0}</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="2"/>
@@ -23212,7 +23222,7 @@
       </c>
       <c r="K10" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":2,"c":25,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":10,"tr":0}</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
@@ -23230,18 +23240,18 @@
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H11" t="str">
         <f>H$6&amp;VLOOKUP(E11,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="1"/>
-        <v>,"c":10,"tr":0}</v>
+        <v>,"c":5,"tr":0}</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="2"/>
@@ -23249,7 +23259,7 @@
       </c>
       <c r="K11" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":2,"c":10,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":5,"tr":0}</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
@@ -23279,18 +23289,18 @@
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H16" t="str">
         <f>H$6&amp;VLOOKUP(E16,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="1"/>
-        <v>,"c":100,"tr":0}</v>
+        <v>,"c":50,"tr":0}</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="2"/>
@@ -23298,7 +23308,7 @@
       </c>
       <c r="K16" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":2,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
@@ -23316,18 +23326,18 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F17">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H17" t="str">
         <f>H$6&amp;VLOOKUP(E17,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="1"/>
-        <v>,"c":50,"tr":0}</v>
+        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="2"/>
@@ -23335,7 +23345,7 @@
       </c>
       <c r="K17" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":2,"c":50,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":25,"tr":0}</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
@@ -23353,18 +23363,18 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H18" t="str">
         <f>H$6&amp;VLOOKUP(E18,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="1"/>
-        <v>,"c":25,"tr":0}</v>
+        <v>,"c":10,"tr":0}</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="2"/>
@@ -23372,7 +23382,7 @@
       </c>
       <c r="K18" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":2,"c":25,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":10,"tr":0}</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
@@ -23390,18 +23400,18 @@
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H19" t="str">
         <f>H$6&amp;VLOOKUP(E19,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="1"/>
-        <v>,"c":10,"tr":0}</v>
+        <v>,"c":5,"tr":0}</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="2"/>
@@ -23409,7 +23419,7 @@
       </c>
       <c r="K19" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":2,"c":10,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":5,"tr":0}</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
@@ -23427,18 +23437,18 @@
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F22">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H22" t="str">
         <f>H$6&amp;VLOOKUP(E22,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" ref="I22:I25" si="5">I$5&amp;F22&amp;I$6</f>
-        <v>,"c":100,"tr":0}</v>
+        <v>,"c":50,"tr":0}</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" ref="J22:J25" si="6">IF(G22="","",J$6)</f>
@@ -23446,7 +23456,7 @@
       </c>
       <c r="K22" t="str">
         <f t="shared" ref="K22:K25" si="7">G22&amp;H22&amp;I22&amp;J22</f>
-        <v>{"t":"i","i":2,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
@@ -23464,18 +23474,18 @@
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F23">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H23" t="str">
         <f>H$6&amp;VLOOKUP(E23,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="5"/>
-        <v>,"c":50,"tr":0}</v>
+        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="6"/>
@@ -23483,7 +23493,7 @@
       </c>
       <c r="K23" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":2,"c":50,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":25,"tr":0}</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
@@ -23501,18 +23511,18 @@
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F24">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H24" t="str">
         <f>H$6&amp;VLOOKUP(E24,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="5"/>
-        <v>,"c":25,"tr":0}</v>
+        <v>,"c":10,"tr":0}</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="6"/>
@@ -23520,7 +23530,7 @@
       </c>
       <c r="K24" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":2,"c":25,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":10,"tr":0}</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
@@ -23538,18 +23548,18 @@
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H25" t="str">
         <f>H$6&amp;VLOOKUP(E25,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="5"/>
-        <v>,"c":10,"tr":0}</v>
+        <v>,"c":5,"tr":0}</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="6"/>
@@ -23557,7 +23567,7 @@
       </c>
       <c r="K25" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":2,"c":10,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":5,"tr":0}</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
@@ -23581,18 +23591,18 @@
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H29" t="str">
         <f>H$6&amp;VLOOKUP(E29,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" ref="I29:I32" si="9">I$5&amp;F29&amp;I$6</f>
-        <v>,"c":100,"tr":0}</v>
+        <v>,"c":50,"tr":0}</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" ref="J29:J32" si="10">IF(G29="","",J$6)</f>
@@ -23600,7 +23610,7 @@
       </c>
       <c r="K29" t="str">
         <f t="shared" ref="K29:K32" si="11">G29&amp;H29&amp;I29&amp;J29</f>
-        <v>{"t":"i","i":2,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
@@ -23618,18 +23628,18 @@
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F30">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H30" t="str">
         <f>H$6&amp;VLOOKUP(E30,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="9"/>
-        <v>,"c":50,"tr":0}</v>
+        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="10"/>
@@ -23637,7 +23647,7 @@
       </c>
       <c r="K30" t="str">
         <f t="shared" si="11"/>
-        <v>{"t":"i","i":2,"c":50,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":25,"tr":0}</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
@@ -23655,18 +23665,18 @@
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F31">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H31" t="str">
         <f>H$6&amp;VLOOKUP(E31,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="9"/>
-        <v>,"c":25,"tr":0}</v>
+        <v>,"c":10,"tr":0}</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="10"/>
@@ -23674,7 +23684,7 @@
       </c>
       <c r="K31" t="str">
         <f t="shared" si="11"/>
-        <v>{"t":"i","i":2,"c":25,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":10,"tr":0}</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
@@ -23692,18 +23702,18 @@
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F32">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H32" t="str">
         <f>H$6&amp;VLOOKUP(E32,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="9"/>
-        <v>,"c":10,"tr":0}</v>
+        <v>,"c":5,"tr":0}</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="10"/>
@@ -23711,7 +23721,7 @@
       </c>
       <c r="K32" t="str">
         <f t="shared" si="11"/>
-        <v>{"t":"i","i":2,"c":10,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":5,"tr":0}</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
@@ -23729,18 +23739,18 @@
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F36">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H36" t="str">
         <f>H$6&amp;VLOOKUP(E36,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" ref="I36:I39" si="13">I$5&amp;F36&amp;I$6</f>
-        <v>,"c":100,"tr":0}</v>
+        <v>,"c":50,"tr":0}</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" ref="J36:J39" si="14">IF(G36="","",J$6)</f>
@@ -23748,7 +23758,7 @@
       </c>
       <c r="K36" t="str">
         <f t="shared" ref="K36:K39" si="15">G36&amp;H36&amp;I36&amp;J36</f>
-        <v>{"t":"i","i":2,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
@@ -23766,18 +23776,18 @@
         <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F37">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H37" t="str">
         <f>H$6&amp;VLOOKUP(E37,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="13"/>
-        <v>,"c":50,"tr":0}</v>
+        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="14"/>
@@ -23785,7 +23795,7 @@
       </c>
       <c r="K37" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":2,"c":50,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":25,"tr":0}</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
@@ -23803,18 +23813,18 @@
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F38">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H38" t="str">
         <f>H$6&amp;VLOOKUP(E38,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="13"/>
-        <v>,"c":25,"tr":0}</v>
+        <v>,"c":10,"tr":0}</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="14"/>
@@ -23822,7 +23832,7 @@
       </c>
       <c r="K38" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":2,"c":25,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":10,"tr":0}</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
@@ -23840,18 +23850,18 @@
         <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F39">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H39" t="str">
         <f>H$6&amp;VLOOKUP(E39,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="13"/>
-        <v>,"c":10,"tr":0}</v>
+        <v>,"c":5,"tr":0}</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="14"/>
@@ -23859,7 +23869,7 @@
       </c>
       <c r="K39" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":2,"c":10,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":5,"tr":0}</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
@@ -23877,18 +23887,18 @@
         <v>1</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F42">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H42" t="str">
         <f>H$6&amp;VLOOKUP(E42,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" ref="I42:I45" si="17">I$5&amp;F42&amp;I$6</f>
-        <v>,"c":100,"tr":0}</v>
+        <v>,"c":50,"tr":0}</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" ref="J42:J45" si="18">IF(G42="","",J$6)</f>
@@ -23896,7 +23906,7 @@
       </c>
       <c r="K42" t="str">
         <f t="shared" ref="K42:K45" si="19">G42&amp;H42&amp;I42&amp;J42</f>
-        <v>{"t":"i","i":2,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
@@ -23914,18 +23924,18 @@
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F43">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H43" t="str">
         <f>H$6&amp;VLOOKUP(E43,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="17"/>
-        <v>,"c":50,"tr":0}</v>
+        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="J43" t="str">
         <f t="shared" si="18"/>
@@ -23933,7 +23943,7 @@
       </c>
       <c r="K43" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":2,"c":50,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":25,"tr":0}</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
@@ -23951,18 +23961,18 @@
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F44">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H44" t="str">
         <f>H$6&amp;VLOOKUP(E44,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="17"/>
-        <v>,"c":25,"tr":0}</v>
+        <v>,"c":10,"tr":0}</v>
       </c>
       <c r="J44" t="str">
         <f t="shared" si="18"/>
@@ -23970,7 +23980,7 @@
       </c>
       <c r="K44" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":2,"c":25,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":10,"tr":0}</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
@@ -23988,18 +23998,18 @@
         <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F45">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H45" t="str">
         <f>H$6&amp;VLOOKUP(E45,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="17"/>
-        <v>,"c":10,"tr":0}</v>
+        <v>,"c":5,"tr":0}</v>
       </c>
       <c r="J45" t="str">
         <f t="shared" si="18"/>
@@ -24007,7 +24017,7 @@
       </c>
       <c r="K45" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":2,"c":10,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":5,"tr":0}</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
@@ -24025,18 +24035,18 @@
         <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F49">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H49" t="str">
         <f>H$6&amp;VLOOKUP(E49,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" ref="I49:I52" si="21">I$5&amp;F49&amp;I$6</f>
-        <v>,"c":100,"tr":0}</v>
+        <v>,"c":50,"tr":0}</v>
       </c>
       <c r="J49" t="str">
         <f t="shared" ref="J49:J52" si="22">IF(G49="","",J$6)</f>
@@ -24044,7 +24054,7 @@
       </c>
       <c r="K49" t="str">
         <f t="shared" ref="K49:K52" si="23">G49&amp;H49&amp;I49&amp;J49</f>
-        <v>{"t":"i","i":2,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
@@ -24062,18 +24072,18 @@
         <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F50">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H50" t="str">
         <f>H$6&amp;VLOOKUP(E50,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="21"/>
-        <v>,"c":50,"tr":0}</v>
+        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="J50" t="str">
         <f t="shared" si="22"/>
@@ -24081,7 +24091,7 @@
       </c>
       <c r="K50" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":2,"c":50,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":25,"tr":0}</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
@@ -24099,18 +24109,18 @@
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F51">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H51" t="str">
         <f>H$6&amp;VLOOKUP(E51,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="21"/>
-        <v>,"c":25,"tr":0}</v>
+        <v>,"c":10,"tr":0}</v>
       </c>
       <c r="J51" t="str">
         <f t="shared" si="22"/>
@@ -24118,7 +24128,7 @@
       </c>
       <c r="K51" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":2,"c":25,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":10,"tr":0}</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
@@ -24136,18 +24146,18 @@
         <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F52">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H52" t="str">
         <f>H$6&amp;VLOOKUP(E52,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="21"/>
-        <v>,"c":10,"tr":0}</v>
+        <v>,"c":5,"tr":0}</v>
       </c>
       <c r="J52" t="str">
         <f t="shared" si="22"/>
@@ -24155,7 +24165,7 @@
       </c>
       <c r="K52" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":2,"c":10,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":5,"tr":0}</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
@@ -24173,18 +24183,18 @@
         <v>1</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F57">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H57" t="str">
         <f>H$6&amp;VLOOKUP(E57,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" ref="I57:I60" si="25">I$5&amp;F57&amp;I$6</f>
-        <v>,"c":100,"tr":0}</v>
+        <v>,"c":50,"tr":0}</v>
       </c>
       <c r="J57" t="str">
         <f t="shared" ref="J57:J60" si="26">IF(G57="","",J$6)</f>
@@ -24192,7 +24202,7 @@
       </c>
       <c r="K57" t="str">
         <f t="shared" ref="K57:K60" si="27">G57&amp;H57&amp;I57&amp;J57</f>
-        <v>{"t":"i","i":2,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
@@ -24210,18 +24220,18 @@
         <v>1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F58">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H58" t="str">
         <f>H$6&amp;VLOOKUP(E58,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="25"/>
-        <v>,"c":50,"tr":0}</v>
+        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="J58" t="str">
         <f t="shared" si="26"/>
@@ -24229,7 +24239,7 @@
       </c>
       <c r="K58" t="str">
         <f t="shared" si="27"/>
-        <v>{"t":"i","i":2,"c":50,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":25,"tr":0}</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
@@ -24247,18 +24257,18 @@
         <v>1</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F59">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H59" t="str">
         <f>H$6&amp;VLOOKUP(E59,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="25"/>
-        <v>,"c":25,"tr":0}</v>
+        <v>,"c":10,"tr":0}</v>
       </c>
       <c r="J59" t="str">
         <f t="shared" si="26"/>
@@ -24266,7 +24276,7 @@
       </c>
       <c r="K59" t="str">
         <f t="shared" si="27"/>
-        <v>{"t":"i","i":2,"c":25,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":10,"tr":0}</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
@@ -24284,18 +24294,18 @@
         <v>1</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F60">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H60" t="str">
         <f>H$6&amp;VLOOKUP(E60,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="25"/>
-        <v>,"c":10,"tr":0}</v>
+        <v>,"c":5,"tr":0}</v>
       </c>
       <c r="J60" t="str">
         <f t="shared" si="26"/>
@@ -24303,7 +24313,7 @@
       </c>
       <c r="K60" t="str">
         <f t="shared" si="27"/>
-        <v>{"t":"i","i":2,"c":10,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":5,"tr":0}</v>
       </c>
     </row>
   </sheetData>
